--- a/download/example-file.xlsx
+++ b/download/example-file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>дівчина</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>ˈrɪ.li</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>дійсно; насправді</t>
@@ -551,29 +548,28 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>39</v>
@@ -593,395 +589,375 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="H4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I42">
+  <sheetProtection password="E9D1" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="H4:H42">
     <cfRule type="iconSet" priority="7">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
@@ -990,7 +966,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
+  <conditionalFormatting sqref="M3">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
@@ -999,19 +975,19 @@
       </iconSet>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
-      <formula>SUMIF($B2:$B1000,O3)</formula>
+      <formula>SUMIF($A2:$A1000,N3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B33">
+  <conditionalFormatting sqref="A2:A33">
     <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B47:B1048576" evalError="1"/>
+    <ignoredError sqref="A47:A1048576" evalError="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1033,7 +1009,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M2:M33</xm:sqref>
+          <xm:sqref>L2:L33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/download/example-file.xlsx
+++ b/download/example-file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>дівчина</t>
   </si>
@@ -154,6 +154,69 @@
   </si>
   <si>
     <t>cambridgeUrl</t>
+  </si>
+  <si>
+    <t>affirmativeSentence</t>
+  </si>
+  <si>
+    <t>negativeSentence</t>
+  </si>
+  <si>
+    <t>questionSentence</t>
+  </si>
+  <si>
+    <t>She is a girl.</t>
+  </si>
+  <si>
+    <t>She is not a girl.</t>
+  </si>
+  <si>
+    <t>Is she a girl?</t>
+  </si>
+  <si>
+    <t>It’s ten minutes, give or take.</t>
+  </si>
+  <si>
+    <t>It isn’t exact, give or take.</t>
+  </si>
+  <si>
+    <t>Is it five hours, give or take?</t>
+  </si>
+  <si>
+    <t>I go to the cinema from time to time.</t>
+  </si>
+  <si>
+    <t>I don’t visit them from time to time.</t>
+  </si>
+  <si>
+    <t>Do you go there from time to time?</t>
+  </si>
+  <si>
+    <t>They welcome new students.</t>
+  </si>
+  <si>
+    <t>They don’t welcome strangers.</t>
+  </si>
+  <si>
+    <t>Do they welcome guests?</t>
+  </si>
+  <si>
+    <t>He is kind, unlike his brother.</t>
+  </si>
+  <si>
+    <t>She is not rude, unlike Tom.</t>
+  </si>
+  <si>
+    <t>Is he funny, unlike your friend?</t>
+  </si>
+  <si>
+    <t>I really like this movie.</t>
+  </si>
+  <si>
+    <t>I don’t really understand.</t>
+  </si>
+  <si>
+    <t>Do you really want to go?</t>
   </si>
 </sst>
 </file>
@@ -221,7 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -238,6 +301,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -551,7 +620,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +630,12 @@
     <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -583,10 +654,19 @@
       <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -606,10 +686,19 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="3"/>
@@ -630,10 +719,19 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="3"/>
@@ -654,13 +752,21 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -679,13 +785,21 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -704,13 +818,21 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -729,13 +851,21 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -956,8 +1086,8 @@
       <c r="G46" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection password="E9D1" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="H4:H42">
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="H8:H42">
     <cfRule type="iconSet" priority="7">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>

--- a/download/example-file.xlsx
+++ b/download/example-file.xlsx
@@ -24,9 +24,6 @@
     <t>дівчина</t>
   </si>
   <si>
-    <t>https://img.freepik.com/free-photo/close-up-beautiful-girl-portrait-woods_23-2150799865.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid</t>
-  </si>
-  <si>
     <t>noun</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>вітати</t>
   </si>
   <si>
-    <t>https://img.freepik.com/free-photo/medium-shot-man-city-lifestyle_23-2151002638.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid</t>
-  </si>
-  <si>
     <t>verb</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>really</t>
   </si>
   <si>
-    <t>https://img.freepik.com/premium-photo/drawing-person-with-letter-i-m-exclamational-written-it_1189726-12994.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid</t>
-  </si>
-  <si>
     <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/really</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/unlike?q=Unlike</t>
   </si>
   <si>
-    <t>https://img.freepik.com/premium-photo/unique-red-sphere-dark-spheres-pattern_1388229-13895.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_keywords_boost</t>
-  </si>
-  <si>
     <t>idiom</t>
   </si>
   <si>
@@ -114,15 +102,9 @@
     <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/give-or-take</t>
   </si>
   <si>
-    <t>https://img.freepik.com/premium-photo/3d-plus-minuse-icon-isolated-white-background-trendy-modern-vector-3d-style-web-design-can-be-used-many-purposes_839035-1780794.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_keywords_boost</t>
-  </si>
-  <si>
     <t>from time to time</t>
   </si>
   <si>
-    <t>https://img.freepik.com/premium-photo/top-view-alarm-clocks-hourglass-peach-background_1351723-14114.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_keywords_boost</t>
-  </si>
-  <si>
     <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/from-time-to-time</t>
   </si>
   <si>
@@ -217,6 +199,24 @@
   </si>
   <si>
     <t>Do you really want to go?</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/close-up-beautiful-girl-portrait-woods_23-2150799865.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/3d-plus-minuse-icon-isolated-white-background-trendy-modern-vector-3d-style-web-design-can-be-used-many-purposes_839035-1780794.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/top-view-alarm-clocks-hourglass-peach-background_1351723-14114.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/medium-shot-man-city-lifestyle_23-2151002638.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/unique-red-sphere-dark-spheres-pattern_1388229-13895.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/drawing-person-with-letter-i-m-exclamational-written-it_1189726-12994.jpg</t>
   </si>
 </sst>
 </file>
@@ -619,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,231 +640,231 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="L7" s="3"/>
     </row>
